--- a/Data/EC/NIT-9005182013.xlsx
+++ b/Data/EC/NIT-9005182013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA72B8D0-CD77-4D62-82F4-92CD4676C58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{716A46B7-F897-4EAE-A16F-5FE3B0B0B144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28DCF6B4-413A-4810-A363-068988443772}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FAF48A46-1DE8-40E6-8E7F-D810BCD48CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,18 @@
     <t>COASTAL COMPANIES COLOMBIA LLC</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>547266</t>
+  </si>
+  <si>
+    <t>SERGIO DANIEL URRUTIA MORAN</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
@@ -71,43 +83,31 @@
     <t>YARIN SOSA CRIADO</t>
   </si>
   <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>404698</t>
+  </si>
+  <si>
+    <t>ALLEN LEWIS WARRINER</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>404698</t>
-  </si>
-  <si>
-    <t>ALLEN LEWIS WARRINER</t>
-  </si>
-  <si>
-    <t>547266</t>
-  </si>
-  <si>
-    <t>SERGIO DANIEL URRUTIA MORAN</t>
-  </si>
-  <si>
-    <t>1610</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AA15A0-C810-1D49-C804-502CCA7123A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526768DC-77C2-02F6-44F7-DAD3A53A89F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772C59E7-B49D-4D0F-A791-71E53D77F243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8568773D-F33D-49E8-AABB-48BC55DD9730}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>101333</v>
+        <v>90133</v>
       </c>
       <c r="G16" s="18">
-        <v>4000000</v>
+        <v>5200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,16 +1061,16 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
         <v>160000</v>
@@ -1087,19 +1087,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>160000</v>
+        <v>66240</v>
       </c>
       <c r="G18" s="18">
-        <v>4000000</v>
+        <v>1656000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,16 +1107,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>160000</v>
@@ -1133,19 +1133,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>160000</v>
+        <v>66240</v>
       </c>
       <c r="G20" s="18">
-        <v>4000000</v>
+        <v>1656000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1153,16 +1153,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>160000</v>
@@ -1179,19 +1179,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>160000</v>
+        <v>66240</v>
       </c>
       <c r="G22" s="18">
-        <v>4000000</v>
+        <v>1656000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1199,22 +1199,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>41952</v>
+        <v>160000</v>
       </c>
       <c r="G23" s="18">
-        <v>1656000</v>
+        <v>4000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1222,16 +1222,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>66240</v>
@@ -1245,22 +1245,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>66240</v>
+        <v>160000</v>
       </c>
       <c r="G25" s="18">
-        <v>1656000</v>
+        <v>4000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1268,16 +1268,16 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>66240</v>
@@ -1291,22 +1291,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>66240</v>
+        <v>160000</v>
       </c>
       <c r="G27" s="18">
-        <v>1656000</v>
+        <v>4000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>66240</v>
@@ -1337,22 +1337,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>66240</v>
+        <v>101333</v>
       </c>
       <c r="G29" s="18">
-        <v>1656000</v>
+        <v>4000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1360,22 +1360,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="21" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="24">
-        <v>90133</v>
+        <v>41952</v>
       </c>
       <c r="G30" s="24">
-        <v>5200000</v>
+        <v>1656000</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
